--- a/Crawling/crawling_data/day_genie/day_genie_20220112.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>날짜</t>
   </si>
@@ -226,8 +226,7 @@
     <t>Blueming</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
@@ -266,8 +265,7 @@
     <t>오래된 노래</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
@@ -676,9 +674,6 @@
   </si>
   <si>
     <t>The Prelude</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>에잇</t>
@@ -2422,7 +2417,7 @@
         <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2439,7 +2434,7 @@
         <v>108</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2456,7 +2451,7 @@
         <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2473,7 +2468,7 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2490,7 +2485,7 @@
         <v>161</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2609,7 +2604,7 @@
         <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2643,7 +2638,7 @@
         <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2660,7 +2655,7 @@
         <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2677,7 +2672,7 @@
         <v>169</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2694,7 +2689,7 @@
         <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2711,7 +2706,7 @@
         <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2762,7 +2757,7 @@
         <v>171</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2779,7 +2774,7 @@
         <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2796,7 +2791,7 @@
         <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
